--- a/develop/unity/prj/MyTownGarbageSeparationMeister/RawData/Table/data_tokyo_shibuya.xlsx
+++ b/develop/unity/prj/MyTownGarbageSeparationMeister/RawData/Table/data_tokyo_shibuya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IKDDocs2\Programs\git_marupeke_io\develop\unity\prj\MyTownGarbageSeparationMeister\RawData\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B82273F-D880-44B4-B3C1-F808B8F43F63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0660BDB5-2DD0-4CA9-9CAC-5270D9CF18A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3408" yWindow="276" windowWidth="17460" windowHeight="11340" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
+    <workbookView xWindow="156" yWindow="120" windowWidth="22320" windowHeight="12036" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Validate</t>
     <phoneticPr fontId="1"/>
@@ -298,6 +298,86 @@
     <t>180 x 240以内</t>
     <rPh sb="9" eb="11">
       <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>errPos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間違い箇所</t>
+    <rPh sb="0" eb="2">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特記事項</t>
+    <rPh sb="0" eb="2">
+      <t>トッキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間違った時のコメント</t>
+    <rPh sb="0" eb="2">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペットボトルは「資源ゴミ」です</t>
+    <rPh sb="8" eb="10">
+      <t>シゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生ごみは「可燃ごみ」です</t>
+    <rPh sb="0" eb="1">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイロンなどの小型家電は@「不燃ごみ」になります</t>
+    <rPh sb="7" eb="9">
+      <t>コガタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カデン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フネン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -345,8 +425,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -663,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436107AB-162A-4C3E-8371-F677628E362D}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -684,9 +767,12 @@
     <col min="12" max="12" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -702,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -710,12 +796,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="M4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -741,16 +827,25 @@
         <v>26</v>
       </c>
       <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>46</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>47</v>
       </c>
+      <c r="P5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -782,16 +877,25 @@
         <v>16</v>
       </c>
       <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
         <v>17</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>43</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>48</v>
       </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -820,13 +924,22 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
         <v>30</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>44</v>
       </c>
+      <c r="P7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -855,16 +968,25 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>45</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>49</v>
       </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -893,16 +1015,25 @@
         <v>32</v>
       </c>
       <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
         <v>36</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>369386</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>50</v>
       </c>
+      <c r="P9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>37</v>
       </c>
@@ -931,13 +1062,22 @@
         <v>41</v>
       </c>
       <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
         <v>42</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>924600</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>50</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/develop/unity/prj/MyTownGarbageSeparationMeister/RawData/Table/data_tokyo_shibuya.xlsx
+++ b/develop/unity/prj/MyTownGarbageSeparationMeister/RawData/Table/data_tokyo_shibuya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IKDDocs2\Programs\git_marupeke_io\develop\unity\prj\MyTownGarbageSeparationMeister\RawData\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0660BDB5-2DD0-4CA9-9CAC-5270D9CF18A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26261326-B993-4061-8F19-3088480C0D0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="120" windowWidth="22320" windowHeight="12036" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="190">
   <si>
     <t>Validate</t>
     <phoneticPr fontId="1"/>
@@ -378,6 +378,935 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>フネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3151衣類</t>
+  </si>
+  <si>
+    <t>garbage_0004</t>
+  </si>
+  <si>
+    <t>衣類</t>
+    <rPh sb="0" eb="2">
+      <t>イルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>布地</t>
+    <rPh sb="0" eb="2">
+      <t>ヌノジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エコのモト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サッカーボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>illust image</t>
+  </si>
+  <si>
+    <t>皮製品は「可燃ごみ」です</t>
+    <rPh sb="0" eb="1">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0005</t>
+  </si>
+  <si>
+    <t>合皮</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣類は拠点回収している@「リサイクル」ゴミです</t>
+    <rPh sb="0" eb="2">
+      <t>イルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汚れたプラスチック容器は@「可燃ごみ」です</t>
+    <rPh sb="0" eb="1">
+      <t>ヨゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>油の容器</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0006</t>
+  </si>
+  <si>
+    <t>プラスチック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残り油あり</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アブラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0007</t>
+  </si>
+  <si>
+    <t>アルミ箔</t>
+    <rPh sb="3" eb="4">
+      <t>ハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミニウム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルミ箔は「不燃ごみ」扱いです</t>
+    <rPh sb="3" eb="4">
+      <t>ハク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フネン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅうたん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jutan</t>
+  </si>
+  <si>
+    <t>huge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いらすとや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅうたんは「粗大ごみ」です</t>
+    <rPh sb="7" eb="9">
+      <t>ソダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コットン糸、パイルウール</t>
+    <rPh sb="4" eb="5">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>30cm角以下の鏡は「不燃ごみ」です</t>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カガミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0009</t>
+  </si>
+  <si>
+    <t>鏡</t>
+    <rPh sb="0" eb="1">
+      <t>カガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガラス、アルミニウム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割れた瓶は「不燃ごみ」扱い。@「割れ物危険」など張り紙を</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ビン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フネン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キケン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <rPh sb="0" eb="1">
+      <t>ビン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割れている</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0010</t>
+  </si>
+  <si>
+    <t>garbage_0011</t>
+  </si>
+  <si>
+    <t>ガラス瓶は「資源ごみ」です</t>
+    <rPh sb="3" eb="4">
+      <t>ビン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30cm角以上の鏡は「粗大ごみ」扱いです</t>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カガミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソダイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0012</t>
+  </si>
+  <si>
+    <t>00734</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材Library.com</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0013</t>
+  </si>
+  <si>
+    <t>乾電池</t>
+    <rPh sb="0" eb="3">
+      <t>カンデンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンガン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンガン電池は「不燃ごみ」です</t>
+    <rPh sb="4" eb="6">
+      <t>デンチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0014</t>
+  </si>
+  <si>
+    <t>アルカリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルカリ電池は「不燃ごみ」です</t>
+    <rPh sb="4" eb="6">
+      <t>デンチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニッケル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>充電電池</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウデン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0015</t>
+  </si>
+  <si>
+    <t>充電電池は拠点回収している@「リサイクル」ゴミです</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウデン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>携帯音楽プレイヤーは拠点回収@「リサイクル」ゴミです</t>
+    <rPh sb="0" eb="2">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>携帯音楽プレイヤー</t>
+    <rPh sb="0" eb="2">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0016</t>
+  </si>
+  <si>
+    <t>アルミニウム、プラスチック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CDは「可燃ごみ」です</t>
+    <rPh sb="4" eb="6">
+      <t>カネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0017</t>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリカーボネイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3096自転車</t>
+  </si>
+  <si>
+    <t>乗れる自転車は拠点回収の@「リサイクル」ゴミです</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジテンシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗れる</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自転車</t>
+    <rPh sb="0" eb="3">
+      <t>ジテンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0018</t>
+  </si>
+  <si>
+    <t>3588壊れた自転車</t>
+  </si>
+  <si>
+    <t>壊れている</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0019</t>
+  </si>
+  <si>
+    <t>壊れた自転車は「粗大ごみ」扱いです</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジテンシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソダイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wash_a02</t>
+  </si>
+  <si>
+    <t>イラストポップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elec</t>
+  </si>
+  <si>
+    <t>garbage_0020</t>
+  </si>
+  <si>
+    <t>洗濯機</t>
+    <rPh sb="0" eb="3">
+      <t>センタクキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洗濯機は「家電リサイクル法」対象@電化製品です</t>
+    <rPh sb="0" eb="3">
+      <t>センタクキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カデン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>デンカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄、プラスチック他</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sekiyu_oil</t>
+  </si>
+  <si>
+    <t>notop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石油は収集対象外です。@販売店・専門業者に依頼します。</t>
+    <rPh sb="0" eb="2">
+      <t>セキユ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ハンバイテン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センモン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ギョウシャ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石油</t>
+    <rPh sb="0" eb="2">
+      <t>セキユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0021</t>
+  </si>
+  <si>
+    <t>液晶テレビ</t>
+    <rPh sb="0" eb="2">
+      <t>エキショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラスチック、ガラス他</t>
+    <rPh sb="10" eb="11">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0022</t>
+  </si>
+  <si>
+    <t>テレビは「家電リサイクル法」対象@家電製品です</t>
+    <rPh sb="5" eb="7">
+      <t>カデン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カデン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長靴</t>
+    <rPh sb="0" eb="2">
+      <t>ナガグツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0023</t>
+  </si>
+  <si>
+    <t>長靴等のゴム製品は「可燃ごみ」です</t>
+    <rPh sb="0" eb="2">
+      <t>ナガグツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SOZAI GOOD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>綿、ポリエステル</t>
+    <rPh sb="0" eb="1">
+      <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0024</t>
+  </si>
+  <si>
+    <t>ぬいぐるみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぬいぐるみは「可燃ごみ」です</t>
+    <rPh sb="7" eb="9">
+      <t>カネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0025</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30cm角以上のぬいぐるみは@「可燃ごみ」です</t>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉱物粉、ワセリン、ひまし油等</t>
+    <rPh sb="0" eb="2">
+      <t>コウブツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ユ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>油粘土</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0026</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>油粘土は「可燃ごみ」です</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dish_a26</t>
+  </si>
+  <si>
+    <t>コップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0027</t>
+  </si>
+  <si>
+    <t>ガラス製のコップは「不燃ごみ」です</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蛍光管</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガラス、水銀</t>
+    <rPh sb="4" eb="6">
+      <t>スイギン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0028</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水銀を含む蛍光管は「資源ごみ」です</t>
+    <rPh sb="0" eb="2">
+      <t>スイギン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>illustkun-00915-ac-520x520</t>
+  </si>
+  <si>
+    <t>イラストくん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄、プラスチック他</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0029</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアコンは「家電リサイクル法」対象@家電製品です</t>
+    <rPh sb="6" eb="8">
+      <t>カデン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カデン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の枝</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0030</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の枝は50cm、太さ10cmまでなら@「可燃ごみ」です</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>garbage_0031</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の枝は50cm、太さ10cm以上は収集@できません（業者依頼）。</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウシュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ギョウシャ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イライ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -386,7 +1315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +1326,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -420,20 +1358,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -746,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436107AB-162A-4C3E-8371-F677628E362D}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1080,9 +2037,1333 @@
         <v>62</v>
       </c>
     </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>600</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>34</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>430</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12">
+        <v>68</v>
+      </c>
+      <c r="I12">
+        <v>68</v>
+      </c>
+      <c r="J12">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>27</v>
+      </c>
+      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13">
+        <v>1332327</v>
+      </c>
+      <c r="O13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14">
+        <v>1412166</v>
+      </c>
+      <c r="O14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <v>8.5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15">
+        <v>1.5</v>
+      </c>
+      <c r="J15">
+        <v>250</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16">
+        <v>700</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" t="s">
+        <v>94</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>450</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17">
+        <v>1505404</v>
+      </c>
+      <c r="O17" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>450</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>28</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18">
+        <v>1505379</v>
+      </c>
+      <c r="O18" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19">
+        <v>3.7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19">
+        <v>27</v>
+      </c>
+      <c r="I19">
+        <v>105</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20">
+        <v>1.4</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>1.4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20">
+        <v>1412217</v>
+      </c>
+      <c r="O20" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21">
+        <v>1.4</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>1.4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21">
+        <v>1412217</v>
+      </c>
+      <c r="O21" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22">
+        <v>1.4</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>1.4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22">
+        <v>1544431</v>
+      </c>
+      <c r="O22" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>0.6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23">
+        <v>133664</v>
+      </c>
+      <c r="O23" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>0.2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24">
+        <v>588</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25">
+        <v>12.5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25">
+        <v>130</v>
+      </c>
+      <c r="I25">
+        <v>80</v>
+      </c>
+      <c r="J25">
+        <v>45</v>
+      </c>
+      <c r="K25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" t="s">
+        <v>131</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" t="s">
+        <v>129</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26">
+        <v>12.5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26">
+        <v>130</v>
+      </c>
+      <c r="I26">
+        <v>80</v>
+      </c>
+      <c r="J26">
+        <v>45</v>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" t="s">
+        <v>135</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <v>110</v>
+      </c>
+      <c r="J27">
+        <v>65</v>
+      </c>
+      <c r="K27" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" t="s">
+        <v>141</v>
+      </c>
+      <c r="N27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" t="s">
+        <v>140</v>
+      </c>
+      <c r="P27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" t="s">
+        <v>147</v>
+      </c>
+      <c r="N28" t="s">
+        <v>146</v>
+      </c>
+      <c r="O28" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29">
+        <v>65</v>
+      </c>
+      <c r="I29">
+        <v>48</v>
+      </c>
+      <c r="J29">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29">
+        <v>5082</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30">
+        <v>1.4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <v>35</v>
+      </c>
+      <c r="J30">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30">
+        <v>45828</v>
+      </c>
+      <c r="O30" t="s">
+        <v>159</v>
+      </c>
+      <c r="P30" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31">
+        <v>500</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31">
+        <v>852975</v>
+      </c>
+      <c r="O31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P31" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32">
+        <v>50</v>
+      </c>
+      <c r="I32">
+        <v>70</v>
+      </c>
+      <c r="J32">
+        <v>50</v>
+      </c>
+      <c r="K32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" t="s">
+        <v>88</v>
+      </c>
+      <c r="N32">
+        <v>852975</v>
+      </c>
+      <c r="O32" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33">
+        <v>400</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33">
+        <v>1547204</v>
+      </c>
+      <c r="O33" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>150</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" t="s">
+        <v>170</v>
+      </c>
+      <c r="O34" t="s">
+        <v>140</v>
+      </c>
+      <c r="P34" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35">
+        <v>500</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35" t="s">
+        <v>69</v>
+      </c>
+      <c r="M35" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <v>284005</v>
+      </c>
+      <c r="O35" t="s">
+        <v>50</v>
+      </c>
+      <c r="P35" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36">
+        <v>85</v>
+      </c>
+      <c r="I36">
+        <v>35</v>
+      </c>
+      <c r="J36">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" t="s">
+        <v>141</v>
+      </c>
+      <c r="N36" t="s">
+        <v>178</v>
+      </c>
+      <c r="O36" t="s">
+        <v>179</v>
+      </c>
+      <c r="P36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37">
+        <v>3.7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>45</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37">
+        <v>292185</v>
+      </c>
+      <c r="O37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38">
+        <v>5.8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>78</v>
+      </c>
+      <c r="J38">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>68</v>
+      </c>
+      <c r="L38" t="s">
+        <v>69</v>
+      </c>
+      <c r="M38" t="s">
+        <v>147</v>
+      </c>
+      <c r="N38">
+        <v>292185</v>
+      </c>
+      <c r="O38" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="Q11" r:id="rId1" xr:uid="{093DCE42-1BC9-4F88-AB25-BE2164277067}"/>
+    <hyperlink ref="Q13" r:id="rId2" xr:uid="{91209C05-552B-45AD-9C56-D129F20F60D4}"/>
+    <hyperlink ref="Q22" r:id="rId3" xr:uid="{7B987540-808C-48FD-A3FC-FF58280802C2}"/>
+    <hyperlink ref="Q23" r:id="rId4" xr:uid="{676757F0-A27D-4D52-8E57-D0A535E52FA7}"/>
+    <hyperlink ref="Q25" r:id="rId5" xr:uid="{CA09FE45-11F3-4DBF-BF98-814241A38CA5}"/>
+    <hyperlink ref="Q32" r:id="rId6" xr:uid="{5A56CDB8-5FC9-44E8-9385-FA38267ADA3A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/develop/unity/prj/MyTownGarbageSeparationMeister/RawData/Table/data_tokyo_shibuya.xlsx
+++ b/develop/unity/prj/MyTownGarbageSeparationMeister/RawData/Table/data_tokyo_shibuya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IKDDocs2\Programs\git_marupeke_io\develop\unity\prj\MyTownGarbageSeparationMeister\RawData\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26261326-B993-4061-8F19-3088480C0D0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05075E3D-37B0-4572-84C4-BDB4C46CC2DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF17B30B-A58C-43B6-8094-068FE282314E}"/>
   </bookViews>
@@ -1705,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436107AB-162A-4C3E-8371-F677628E362D}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2101,13 +2101,13 @@
         <v>67</v>
       </c>
       <c r="H12">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I12">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="J12">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
         <v>68</v>
